--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milos\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20670" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11835" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="Login Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -48,6 +44,9 @@
   </si>
   <si>
     <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -423,7 +422,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
